--- a/src/test/resources/dersler_copy.xlsx
+++ b/src/test/resources/dersler_copy.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakup\IdeaProjects\CanvasDataProvider\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C331CE7B-A283-4909-AC57-F87C9A314B1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2C5F81-755C-4984-BC95-D94DF959CA98}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="1695" windowWidth="20085" windowHeight="12810" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deneme" sheetId="5" r:id="rId1"/>
     <sheet name="EU7" sheetId="8" r:id="rId2"/>
     <sheet name="EU6" sheetId="9" r:id="rId3"/>
+    <sheet name="EU6-2" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="212">
   <si>
     <t>https://learn.cybertekschool.com/courses/616/pages/recording-day-4-arithmetic-operators?module_item_id=41366</t>
   </si>
@@ -258,9 +259,6 @@
     <t>Yakup Aydin</t>
   </si>
   <si>
-    <t>Diyor Jaloldinov</t>
-  </si>
-  <si>
     <t>Volkan Yildiz</t>
   </si>
   <si>
@@ -666,6 +664,9 @@
   </si>
   <si>
     <t>Serkan Saribek</t>
+  </si>
+  <si>
+    <t>Muhhammaddiyor Jaloldinov</t>
   </si>
 </sst>
 </file>
@@ -997,61 +998,7 @@
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1073,12 +1020,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1111,28 +1055,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1147,19 +1074,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1603,7 +1520,7 @@
   <dimension ref="A1:JT44"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3647,7 +3564,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="41">
         <v>0</v>
@@ -3679,7 +3596,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" s="15">
         <v>0</v>
@@ -3711,7 +3628,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
@@ -3743,7 +3660,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="15">
         <v>0</v>
@@ -3775,7 +3692,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
@@ -3807,7 +3724,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="15">
         <v>0</v>
@@ -3839,7 +3756,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -3871,7 +3788,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38" s="15">
         <v>0</v>
@@ -3903,7 +3820,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
@@ -3935,7 +3852,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B40" s="15">
         <v>0</v>
@@ -3967,7 +3884,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -3999,7 +3916,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B42" s="15">
         <v>0</v>
@@ -4031,7 +3948,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -4063,7 +3980,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B44" s="15">
         <v>0</v>
@@ -4095,35 +4012,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3:XFD6">
-    <cfRule type="containsBlanks" dxfId="32" priority="7">
+    <cfRule type="containsBlanks" dxfId="23" priority="7">
       <formula>LEN(TRIM(K3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:J16">
-    <cfRule type="containsBlanks" dxfId="29" priority="4">
+    <cfRule type="containsBlanks" dxfId="20" priority="4">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:J44">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(B31))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4134,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C947439A-64A5-4534-B26F-649C6FD26A97}">
-  <dimension ref="A1:JT15"/>
+  <dimension ref="A1:BX14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ5" sqref="BQ5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,117 +4062,117 @@
     <col min="1" max="1" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:280" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="J1" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y1" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="X1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="Y1" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AE1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AF1" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AG1" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AL1" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="AL1" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="AM1" s="33" t="s">
         <v>43</v>
@@ -4312,13 +4229,13 @@
         <v>60</v>
       </c>
       <c r="BE1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="BF1" s="33" t="s">
+      <c r="BG1" s="33" t="s">
         <v>93</v>
-      </c>
-      <c r="BG1" s="33" t="s">
-        <v>94</v>
       </c>
       <c r="BH1" s="33" t="s">
         <v>61</v>
@@ -4327,19 +4244,19 @@
         <v>62</v>
       </c>
       <c r="BJ1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK1" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BL1" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="33" t="s">
-        <v>97</v>
-      </c>
       <c r="BM1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN1" s="33" t="s">
         <v>90</v>
-      </c>
-      <c r="BN1" s="33" t="s">
-        <v>91</v>
       </c>
       <c r="BO1" s="33" t="s">
         <v>63</v>
@@ -4360,213 +4277,213 @@
         <v>68</v>
       </c>
       <c r="BU1" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BV1" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BW1" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="BX1" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="BX1" s="36" t="s">
-        <v>197</v>
-      </c>
     </row>
-    <row r="2" spans="1:280" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="34" t="s">
         <v>126</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>127</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="34" t="s">
-        <v>131</v>
-      </c>
       <c r="K2" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>140</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>141</v>
       </c>
       <c r="S2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="Y2" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Z2" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="AA2" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="AA2" s="34" t="s">
+      <c r="AB2" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="AB2" s="34" t="s">
+      <c r="AC2" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD2" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AE2" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="AD2" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE2" s="34" t="s">
+      <c r="AF2" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AG2" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AH2" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AI2" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="AI2" s="34" t="s">
+      <c r="AJ2" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="AJ2" s="34" t="s">
+      <c r="AK2" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="AL2" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="AL2" s="34" t="s">
+      <c r="AM2" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="AM2" s="34" t="s">
+      <c r="AN2" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="AN2" s="34" t="s">
+      <c r="AO2" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="AO2" s="34" t="s">
+      <c r="AP2" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="AP2" s="34" t="s">
+      <c r="AQ2" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="AQ2" s="34" t="s">
+      <c r="AR2" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="AR2" s="34" t="s">
+      <c r="AS2" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="AS2" s="34" t="s">
+      <c r="AT2" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="AT2" s="34" t="s">
+      <c r="AU2" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="AU2" s="34" t="s">
+      <c r="AV2" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="AV2" s="34" t="s">
+      <c r="AW2" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="AW2" s="34" t="s">
+      <c r="AX2" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="AX2" s="34" t="s">
+      <c r="AY2" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="AY2" s="34" t="s">
+      <c r="AZ2" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="AZ2" s="34" t="s">
+      <c r="BA2" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="BA2" s="34" t="s">
+      <c r="BB2" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="BB2" s="34" t="s">
+      <c r="BC2" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="BC2" s="34" t="s">
+      <c r="BD2" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="BD2" s="34" t="s">
+      <c r="BE2" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="BE2" s="34" t="s">
+      <c r="BF2" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="BF2" s="34" t="s">
+      <c r="BG2" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="BG2" s="34" t="s">
+      <c r="BH2" s="34" t="s">
         <v>181</v>
-      </c>
-      <c r="BH2" s="34" t="s">
-        <v>182</v>
       </c>
       <c r="BI2" s="21" t="s">
         <v>28</v>
       </c>
       <c r="BJ2" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK2" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="BK2" s="34" t="s">
+      <c r="BL2" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="BL2" s="34" t="s">
+      <c r="BM2" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="BM2" s="34" t="s">
+      <c r="BN2" s="34" t="s">
         <v>186</v>
-      </c>
-      <c r="BN2" s="34" t="s">
-        <v>187</v>
       </c>
       <c r="BO2" s="21" t="s">
         <v>28</v>
@@ -4575,10 +4492,10 @@
         <v>28</v>
       </c>
       <c r="BQ2" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR2" s="34" t="s">
         <v>188</v>
-      </c>
-      <c r="BR2" s="34" t="s">
-        <v>189</v>
       </c>
       <c r="BS2" s="21" t="s">
         <v>28</v>
@@ -4587,39 +4504,19 @@
         <v>28</v>
       </c>
       <c r="BU2" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BV2" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BW2" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="BX2" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="BX2" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY2" s="21"/>
-      <c r="BZ2" s="21"/>
-      <c r="CA2" s="21"/>
-      <c r="CB2" s="21"/>
-      <c r="CC2" s="21"/>
-      <c r="CD2" s="21"/>
-      <c r="CE2" s="21"/>
-      <c r="CF2" s="21"/>
-      <c r="CG2" s="21"/>
-      <c r="CH2" s="21"/>
-      <c r="CI2" s="21"/>
-      <c r="CJ2" s="21"/>
-      <c r="CK2" s="21"/>
-      <c r="CL2" s="21"/>
-      <c r="CM2" s="21"/>
-      <c r="CN2" s="21"/>
-      <c r="CO2" s="21"/>
-      <c r="CP2" s="21"/>
-      <c r="CQ2" s="21"/>
-      <c r="CR2" s="21"/>
     </row>
-    <row r="3" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>69</v>
       </c>
@@ -4836,216 +4733,20 @@
       <c r="BT3" s="22">
         <v>0</v>
       </c>
-      <c r="BU3" s="10"/>
-      <c r="BV3" s="10"/>
-      <c r="BW3" s="10"/>
-      <c r="BX3" s="10"/>
-      <c r="BY3" s="10"/>
-      <c r="BZ3" s="10"/>
-      <c r="CA3" s="10"/>
-      <c r="CB3" s="10"/>
-      <c r="CC3" s="10"/>
-      <c r="CD3" s="10"/>
-      <c r="CE3" s="10"/>
-      <c r="CF3" s="10"/>
-      <c r="CG3" s="10"/>
-      <c r="CH3" s="10"/>
-      <c r="CI3" s="10"/>
-      <c r="CJ3" s="10"/>
-      <c r="CK3" s="10"/>
-      <c r="CL3" s="10"/>
-      <c r="CM3" s="10"/>
-      <c r="CN3" s="10"/>
-      <c r="CO3" s="10"/>
-      <c r="CP3" s="10"/>
-      <c r="CQ3" s="10"/>
-      <c r="CR3" s="10"/>
-      <c r="CS3" s="10"/>
-      <c r="CT3" s="10"/>
-      <c r="CU3" s="10"/>
-      <c r="CV3" s="10"/>
-      <c r="CW3" s="10"/>
-      <c r="CX3" s="10"/>
-      <c r="CY3" s="10"/>
-      <c r="CZ3" s="10"/>
-      <c r="DA3" s="10"/>
-      <c r="DB3" s="10"/>
-      <c r="DC3" s="10"/>
-      <c r="DD3" s="10"/>
-      <c r="DE3" s="10"/>
-      <c r="DF3" s="10"/>
-      <c r="DG3" s="10"/>
-      <c r="DH3" s="10"/>
-      <c r="DI3" s="10"/>
-      <c r="DJ3" s="10"/>
-      <c r="DK3" s="10"/>
-      <c r="DL3" s="10"/>
-      <c r="DM3" s="10"/>
-      <c r="DN3" s="10"/>
-      <c r="DO3" s="10"/>
-      <c r="DP3" s="10"/>
-      <c r="DQ3" s="10"/>
-      <c r="DR3" s="10"/>
-      <c r="DS3" s="10"/>
-      <c r="DT3" s="10"/>
-      <c r="DU3" s="10"/>
-      <c r="DV3" s="10"/>
-      <c r="DW3" s="10"/>
-      <c r="DX3" s="10"/>
-      <c r="DY3" s="10"/>
-      <c r="DZ3" s="10"/>
-      <c r="EA3" s="10"/>
-      <c r="EB3" s="10"/>
-      <c r="EC3" s="10"/>
-      <c r="ED3" s="10"/>
-      <c r="EE3" s="10"/>
-      <c r="EF3" s="10"/>
-      <c r="EG3" s="10"/>
-      <c r="EH3" s="10"/>
-      <c r="EI3" s="10"/>
-      <c r="EJ3" s="10"/>
-      <c r="EK3" s="10"/>
-      <c r="EL3" s="10"/>
-      <c r="EM3" s="10"/>
-      <c r="EN3" s="10"/>
-      <c r="EO3" s="10"/>
-      <c r="EP3" s="10"/>
-      <c r="EQ3" s="10"/>
-      <c r="ER3" s="10"/>
-      <c r="ES3" s="10"/>
-      <c r="ET3" s="10"/>
-      <c r="EU3" s="10"/>
-      <c r="EV3" s="10"/>
-      <c r="EW3" s="10"/>
-      <c r="EX3" s="11"/>
-      <c r="EY3" s="11"/>
-      <c r="EZ3" s="11"/>
-      <c r="FA3" s="11"/>
-      <c r="FB3" s="11"/>
-      <c r="FC3" s="11"/>
-      <c r="FD3" s="11"/>
-      <c r="FE3" s="11"/>
-      <c r="FF3" s="11"/>
-      <c r="FG3" s="11"/>
-      <c r="FH3" s="11"/>
-      <c r="FI3" s="11"/>
-      <c r="FJ3" s="11"/>
-      <c r="FK3" s="11"/>
-      <c r="FL3" s="11"/>
-      <c r="FM3" s="11"/>
-      <c r="FN3" s="11"/>
-      <c r="FO3" s="11"/>
-      <c r="FP3" s="11"/>
-      <c r="FQ3" s="11"/>
-      <c r="FR3" s="11"/>
-      <c r="FS3" s="11"/>
-      <c r="FT3" s="11"/>
-      <c r="FU3" s="11"/>
-      <c r="FV3" s="11"/>
-      <c r="FW3" s="11"/>
-      <c r="FX3" s="11"/>
-      <c r="FY3" s="11"/>
-      <c r="FZ3" s="11"/>
-      <c r="GA3" s="11"/>
-      <c r="GB3" s="11"/>
-      <c r="GC3" s="11"/>
-      <c r="GD3" s="11"/>
-      <c r="GE3" s="11"/>
-      <c r="GF3" s="11"/>
-      <c r="GG3" s="11"/>
-      <c r="GH3" s="11"/>
-      <c r="GI3" s="11"/>
-      <c r="GJ3" s="11"/>
-      <c r="GK3" s="11"/>
-      <c r="GL3" s="11"/>
-      <c r="GM3" s="11"/>
-      <c r="GN3" s="11"/>
-      <c r="GO3" s="11"/>
-      <c r="GP3" s="11"/>
-      <c r="GQ3" s="11"/>
-      <c r="GR3" s="11"/>
-      <c r="GS3" s="11"/>
-      <c r="GT3" s="11"/>
-      <c r="GU3" s="11"/>
-      <c r="GV3" s="11"/>
-      <c r="GW3" s="11"/>
-      <c r="GX3" s="11"/>
-      <c r="GY3" s="11"/>
-      <c r="GZ3" s="11"/>
-      <c r="HA3" s="11"/>
-      <c r="HB3" s="11"/>
-      <c r="HC3" s="11"/>
-      <c r="HD3" s="11"/>
-      <c r="HE3" s="11"/>
-      <c r="HF3" s="11"/>
-      <c r="HG3" s="11"/>
-      <c r="HH3" s="11"/>
-      <c r="HI3" s="11"/>
-      <c r="HJ3" s="11"/>
-      <c r="HK3" s="11"/>
-      <c r="HL3" s="11"/>
-      <c r="HM3" s="11"/>
-      <c r="HN3" s="11"/>
-      <c r="HO3" s="11"/>
-      <c r="HP3" s="11"/>
-      <c r="HQ3" s="11"/>
-      <c r="HR3" s="11"/>
-      <c r="HS3" s="11"/>
-      <c r="HT3" s="11"/>
-      <c r="HU3" s="11"/>
-      <c r="HV3" s="11"/>
-      <c r="HW3" s="11"/>
-      <c r="HX3" s="11"/>
-      <c r="HY3" s="11"/>
-      <c r="HZ3" s="11"/>
-      <c r="IA3" s="11"/>
-      <c r="IB3" s="11"/>
-      <c r="IC3" s="11"/>
-      <c r="ID3" s="11"/>
-      <c r="IE3" s="11"/>
-      <c r="IF3" s="11"/>
-      <c r="IG3" s="11"/>
-      <c r="IH3" s="11"/>
-      <c r="II3" s="11"/>
-      <c r="IJ3" s="11"/>
-      <c r="IK3" s="11"/>
-      <c r="IL3" s="11"/>
-      <c r="IM3" s="11"/>
-      <c r="IN3" s="11"/>
-      <c r="IO3" s="11"/>
-      <c r="IP3" s="11"/>
-      <c r="IQ3" s="11"/>
-      <c r="IR3" s="11"/>
-      <c r="IS3" s="11"/>
-      <c r="IT3" s="11"/>
-      <c r="IU3" s="11"/>
-      <c r="IV3" s="11"/>
-      <c r="IW3" s="11"/>
-      <c r="IX3" s="11"/>
-      <c r="IY3" s="11"/>
-      <c r="IZ3" s="11"/>
-      <c r="JA3" s="11"/>
-      <c r="JB3" s="11"/>
-      <c r="JC3" s="11"/>
-      <c r="JD3" s="11"/>
-      <c r="JE3" s="11"/>
-      <c r="JF3" s="11"/>
-      <c r="JG3" s="11"/>
-      <c r="JH3" s="11"/>
-      <c r="JI3" s="11"/>
-      <c r="JJ3" s="11"/>
-      <c r="JK3" s="11"/>
-      <c r="JL3" s="11"/>
-      <c r="JM3" s="11"/>
-      <c r="JN3" s="11"/>
-      <c r="JO3" s="11"/>
-      <c r="JP3" s="11"/>
-      <c r="JQ3" s="11"/>
-      <c r="JR3" s="11"/>
-      <c r="JS3" s="11"/>
-      <c r="JT3" s="11"/>
+      <c r="BU3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>70</v>
       </c>
@@ -5262,216 +4963,20 @@
       <c r="BT4" s="22">
         <v>0</v>
       </c>
-      <c r="BU4" s="10"/>
-      <c r="BV4" s="10"/>
-      <c r="BW4" s="10"/>
-      <c r="BX4" s="10"/>
-      <c r="BY4" s="10"/>
-      <c r="BZ4" s="10"/>
-      <c r="CA4" s="10"/>
-      <c r="CB4" s="10"/>
-      <c r="CC4" s="10"/>
-      <c r="CD4" s="10"/>
-      <c r="CE4" s="10"/>
-      <c r="CF4" s="10"/>
-      <c r="CG4" s="10"/>
-      <c r="CH4" s="10"/>
-      <c r="CI4" s="10"/>
-      <c r="CJ4" s="10"/>
-      <c r="CK4" s="10"/>
-      <c r="CL4" s="10"/>
-      <c r="CM4" s="10"/>
-      <c r="CN4" s="10"/>
-      <c r="CO4" s="10"/>
-      <c r="CP4" s="10"/>
-      <c r="CQ4" s="10"/>
-      <c r="CR4" s="10"/>
-      <c r="CS4" s="10"/>
-      <c r="CT4" s="10"/>
-      <c r="CU4" s="10"/>
-      <c r="CV4" s="10"/>
-      <c r="CW4" s="10"/>
-      <c r="CX4" s="10"/>
-      <c r="CY4" s="10"/>
-      <c r="CZ4" s="10"/>
-      <c r="DA4" s="10"/>
-      <c r="DB4" s="10"/>
-      <c r="DC4" s="10"/>
-      <c r="DD4" s="10"/>
-      <c r="DE4" s="10"/>
-      <c r="DF4" s="10"/>
-      <c r="DG4" s="10"/>
-      <c r="DH4" s="10"/>
-      <c r="DI4" s="10"/>
-      <c r="DJ4" s="10"/>
-      <c r="DK4" s="10"/>
-      <c r="DL4" s="10"/>
-      <c r="DM4" s="10"/>
-      <c r="DN4" s="10"/>
-      <c r="DO4" s="10"/>
-      <c r="DP4" s="10"/>
-      <c r="DQ4" s="10"/>
-      <c r="DR4" s="10"/>
-      <c r="DS4" s="10"/>
-      <c r="DT4" s="10"/>
-      <c r="DU4" s="10"/>
-      <c r="DV4" s="10"/>
-      <c r="DW4" s="10"/>
-      <c r="DX4" s="10"/>
-      <c r="DY4" s="10"/>
-      <c r="DZ4" s="10"/>
-      <c r="EA4" s="10"/>
-      <c r="EB4" s="10"/>
-      <c r="EC4" s="10"/>
-      <c r="ED4" s="10"/>
-      <c r="EE4" s="10"/>
-      <c r="EF4" s="10"/>
-      <c r="EG4" s="10"/>
-      <c r="EH4" s="10"/>
-      <c r="EI4" s="10"/>
-      <c r="EJ4" s="10"/>
-      <c r="EK4" s="10"/>
-      <c r="EL4" s="10"/>
-      <c r="EM4" s="10"/>
-      <c r="EN4" s="10"/>
-      <c r="EO4" s="10"/>
-      <c r="EP4" s="10"/>
-      <c r="EQ4" s="10"/>
-      <c r="ER4" s="10"/>
-      <c r="ES4" s="10"/>
-      <c r="ET4" s="10"/>
-      <c r="EU4" s="10"/>
-      <c r="EV4" s="10"/>
-      <c r="EW4" s="10"/>
-      <c r="EX4" s="11"/>
-      <c r="EY4" s="11"/>
-      <c r="EZ4" s="11"/>
-      <c r="FA4" s="11"/>
-      <c r="FB4" s="11"/>
-      <c r="FC4" s="11"/>
-      <c r="FD4" s="11"/>
-      <c r="FE4" s="11"/>
-      <c r="FF4" s="11"/>
-      <c r="FG4" s="11"/>
-      <c r="FH4" s="11"/>
-      <c r="FI4" s="11"/>
-      <c r="FJ4" s="11"/>
-      <c r="FK4" s="11"/>
-      <c r="FL4" s="11"/>
-      <c r="FM4" s="11"/>
-      <c r="FN4" s="11"/>
-      <c r="FO4" s="11"/>
-      <c r="FP4" s="11"/>
-      <c r="FQ4" s="11"/>
-      <c r="FR4" s="11"/>
-      <c r="FS4" s="11"/>
-      <c r="FT4" s="11"/>
-      <c r="FU4" s="11"/>
-      <c r="FV4" s="11"/>
-      <c r="FW4" s="11"/>
-      <c r="FX4" s="11"/>
-      <c r="FY4" s="11"/>
-      <c r="FZ4" s="11"/>
-      <c r="GA4" s="11"/>
-      <c r="GB4" s="11"/>
-      <c r="GC4" s="11"/>
-      <c r="GD4" s="11"/>
-      <c r="GE4" s="11"/>
-      <c r="GF4" s="11"/>
-      <c r="GG4" s="11"/>
-      <c r="GH4" s="11"/>
-      <c r="GI4" s="11"/>
-      <c r="GJ4" s="11"/>
-      <c r="GK4" s="11"/>
-      <c r="GL4" s="11"/>
-      <c r="GM4" s="11"/>
-      <c r="GN4" s="11"/>
-      <c r="GO4" s="11"/>
-      <c r="GP4" s="11"/>
-      <c r="GQ4" s="11"/>
-      <c r="GR4" s="11"/>
-      <c r="GS4" s="11"/>
-      <c r="GT4" s="11"/>
-      <c r="GU4" s="11"/>
-      <c r="GV4" s="11"/>
-      <c r="GW4" s="11"/>
-      <c r="GX4" s="11"/>
-      <c r="GY4" s="11"/>
-      <c r="GZ4" s="11"/>
-      <c r="HA4" s="11"/>
-      <c r="HB4" s="11"/>
-      <c r="HC4" s="11"/>
-      <c r="HD4" s="11"/>
-      <c r="HE4" s="11"/>
-      <c r="HF4" s="11"/>
-      <c r="HG4" s="11"/>
-      <c r="HH4" s="11"/>
-      <c r="HI4" s="11"/>
-      <c r="HJ4" s="11"/>
-      <c r="HK4" s="11"/>
-      <c r="HL4" s="11"/>
-      <c r="HM4" s="11"/>
-      <c r="HN4" s="11"/>
-      <c r="HO4" s="11"/>
-      <c r="HP4" s="11"/>
-      <c r="HQ4" s="11"/>
-      <c r="HR4" s="11"/>
-      <c r="HS4" s="11"/>
-      <c r="HT4" s="11"/>
-      <c r="HU4" s="11"/>
-      <c r="HV4" s="11"/>
-      <c r="HW4" s="11"/>
-      <c r="HX4" s="11"/>
-      <c r="HY4" s="11"/>
-      <c r="HZ4" s="11"/>
-      <c r="IA4" s="11"/>
-      <c r="IB4" s="11"/>
-      <c r="IC4" s="11"/>
-      <c r="ID4" s="11"/>
-      <c r="IE4" s="11"/>
-      <c r="IF4" s="11"/>
-      <c r="IG4" s="11"/>
-      <c r="IH4" s="11"/>
-      <c r="II4" s="11"/>
-      <c r="IJ4" s="11"/>
-      <c r="IK4" s="11"/>
-      <c r="IL4" s="11"/>
-      <c r="IM4" s="11"/>
-      <c r="IN4" s="11"/>
-      <c r="IO4" s="11"/>
-      <c r="IP4" s="11"/>
-      <c r="IQ4" s="11"/>
-      <c r="IR4" s="11"/>
-      <c r="IS4" s="11"/>
-      <c r="IT4" s="11"/>
-      <c r="IU4" s="11"/>
-      <c r="IV4" s="11"/>
-      <c r="IW4" s="11"/>
-      <c r="IX4" s="11"/>
-      <c r="IY4" s="11"/>
-      <c r="IZ4" s="11"/>
-      <c r="JA4" s="11"/>
-      <c r="JB4" s="11"/>
-      <c r="JC4" s="11"/>
-      <c r="JD4" s="11"/>
-      <c r="JE4" s="11"/>
-      <c r="JF4" s="11"/>
-      <c r="JG4" s="11"/>
-      <c r="JH4" s="11"/>
-      <c r="JI4" s="11"/>
-      <c r="JJ4" s="11"/>
-      <c r="JK4" s="11"/>
-      <c r="JL4" s="11"/>
-      <c r="JM4" s="11"/>
-      <c r="JN4" s="11"/>
-      <c r="JO4" s="11"/>
-      <c r="JP4" s="11"/>
-      <c r="JQ4" s="11"/>
-      <c r="JR4" s="11"/>
-      <c r="JS4" s="11"/>
-      <c r="JT4" s="11"/>
+      <c r="BU4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>71</v>
       </c>
@@ -5688,216 +5193,20 @@
       <c r="BT5" s="22">
         <v>0</v>
       </c>
-      <c r="BU5" s="10"/>
-      <c r="BV5" s="10"/>
-      <c r="BW5" s="10"/>
-      <c r="BX5" s="10"/>
-      <c r="BY5" s="10"/>
-      <c r="BZ5" s="10"/>
-      <c r="CA5" s="10"/>
-      <c r="CB5" s="10"/>
-      <c r="CC5" s="10"/>
-      <c r="CD5" s="10"/>
-      <c r="CE5" s="10"/>
-      <c r="CF5" s="10"/>
-      <c r="CG5" s="10"/>
-      <c r="CH5" s="10"/>
-      <c r="CI5" s="10"/>
-      <c r="CJ5" s="10"/>
-      <c r="CK5" s="10"/>
-      <c r="CL5" s="10"/>
-      <c r="CM5" s="10"/>
-      <c r="CN5" s="10"/>
-      <c r="CO5" s="10"/>
-      <c r="CP5" s="10"/>
-      <c r="CQ5" s="10"/>
-      <c r="CR5" s="10"/>
-      <c r="CS5" s="10"/>
-      <c r="CT5" s="10"/>
-      <c r="CU5" s="10"/>
-      <c r="CV5" s="10"/>
-      <c r="CW5" s="10"/>
-      <c r="CX5" s="10"/>
-      <c r="CY5" s="10"/>
-      <c r="CZ5" s="10"/>
-      <c r="DA5" s="10"/>
-      <c r="DB5" s="10"/>
-      <c r="DC5" s="10"/>
-      <c r="DD5" s="10"/>
-      <c r="DE5" s="10"/>
-      <c r="DF5" s="10"/>
-      <c r="DG5" s="10"/>
-      <c r="DH5" s="10"/>
-      <c r="DI5" s="10"/>
-      <c r="DJ5" s="10"/>
-      <c r="DK5" s="10"/>
-      <c r="DL5" s="10"/>
-      <c r="DM5" s="10"/>
-      <c r="DN5" s="10"/>
-      <c r="DO5" s="10"/>
-      <c r="DP5" s="10"/>
-      <c r="DQ5" s="10"/>
-      <c r="DR5" s="10"/>
-      <c r="DS5" s="10"/>
-      <c r="DT5" s="10"/>
-      <c r="DU5" s="10"/>
-      <c r="DV5" s="10"/>
-      <c r="DW5" s="10"/>
-      <c r="DX5" s="10"/>
-      <c r="DY5" s="10"/>
-      <c r="DZ5" s="10"/>
-      <c r="EA5" s="10"/>
-      <c r="EB5" s="10"/>
-      <c r="EC5" s="10"/>
-      <c r="ED5" s="10"/>
-      <c r="EE5" s="10"/>
-      <c r="EF5" s="10"/>
-      <c r="EG5" s="10"/>
-      <c r="EH5" s="10"/>
-      <c r="EI5" s="10"/>
-      <c r="EJ5" s="10"/>
-      <c r="EK5" s="10"/>
-      <c r="EL5" s="10"/>
-      <c r="EM5" s="10"/>
-      <c r="EN5" s="10"/>
-      <c r="EO5" s="10"/>
-      <c r="EP5" s="10"/>
-      <c r="EQ5" s="10"/>
-      <c r="ER5" s="10"/>
-      <c r="ES5" s="10"/>
-      <c r="ET5" s="10"/>
-      <c r="EU5" s="10"/>
-      <c r="EV5" s="10"/>
-      <c r="EW5" s="10"/>
-      <c r="EX5" s="11"/>
-      <c r="EY5" s="11"/>
-      <c r="EZ5" s="11"/>
-      <c r="FA5" s="11"/>
-      <c r="FB5" s="11"/>
-      <c r="FC5" s="11"/>
-      <c r="FD5" s="11"/>
-      <c r="FE5" s="11"/>
-      <c r="FF5" s="11"/>
-      <c r="FG5" s="11"/>
-      <c r="FH5" s="11"/>
-      <c r="FI5" s="11"/>
-      <c r="FJ5" s="11"/>
-      <c r="FK5" s="11"/>
-      <c r="FL5" s="11"/>
-      <c r="FM5" s="11"/>
-      <c r="FN5" s="11"/>
-      <c r="FO5" s="11"/>
-      <c r="FP5" s="11"/>
-      <c r="FQ5" s="11"/>
-      <c r="FR5" s="11"/>
-      <c r="FS5" s="11"/>
-      <c r="FT5" s="11"/>
-      <c r="FU5" s="11"/>
-      <c r="FV5" s="11"/>
-      <c r="FW5" s="11"/>
-      <c r="FX5" s="11"/>
-      <c r="FY5" s="11"/>
-      <c r="FZ5" s="11"/>
-      <c r="GA5" s="11"/>
-      <c r="GB5" s="11"/>
-      <c r="GC5" s="11"/>
-      <c r="GD5" s="11"/>
-      <c r="GE5" s="11"/>
-      <c r="GF5" s="11"/>
-      <c r="GG5" s="11"/>
-      <c r="GH5" s="11"/>
-      <c r="GI5" s="11"/>
-      <c r="GJ5" s="11"/>
-      <c r="GK5" s="11"/>
-      <c r="GL5" s="11"/>
-      <c r="GM5" s="11"/>
-      <c r="GN5" s="11"/>
-      <c r="GO5" s="11"/>
-      <c r="GP5" s="11"/>
-      <c r="GQ5" s="11"/>
-      <c r="GR5" s="11"/>
-      <c r="GS5" s="11"/>
-      <c r="GT5" s="11"/>
-      <c r="GU5" s="11"/>
-      <c r="GV5" s="11"/>
-      <c r="GW5" s="11"/>
-      <c r="GX5" s="11"/>
-      <c r="GY5" s="11"/>
-      <c r="GZ5" s="11"/>
-      <c r="HA5" s="11"/>
-      <c r="HB5" s="11"/>
-      <c r="HC5" s="11"/>
-      <c r="HD5" s="11"/>
-      <c r="HE5" s="11"/>
-      <c r="HF5" s="11"/>
-      <c r="HG5" s="11"/>
-      <c r="HH5" s="11"/>
-      <c r="HI5" s="11"/>
-      <c r="HJ5" s="11"/>
-      <c r="HK5" s="11"/>
-      <c r="HL5" s="11"/>
-      <c r="HM5" s="11"/>
-      <c r="HN5" s="11"/>
-      <c r="HO5" s="11"/>
-      <c r="HP5" s="11"/>
-      <c r="HQ5" s="11"/>
-      <c r="HR5" s="11"/>
-      <c r="HS5" s="11"/>
-      <c r="HT5" s="11"/>
-      <c r="HU5" s="11"/>
-      <c r="HV5" s="11"/>
-      <c r="HW5" s="11"/>
-      <c r="HX5" s="11"/>
-      <c r="HY5" s="11"/>
-      <c r="HZ5" s="11"/>
-      <c r="IA5" s="11"/>
-      <c r="IB5" s="11"/>
-      <c r="IC5" s="11"/>
-      <c r="ID5" s="11"/>
-      <c r="IE5" s="11"/>
-      <c r="IF5" s="11"/>
-      <c r="IG5" s="11"/>
-      <c r="IH5" s="11"/>
-      <c r="II5" s="11"/>
-      <c r="IJ5" s="11"/>
-      <c r="IK5" s="11"/>
-      <c r="IL5" s="11"/>
-      <c r="IM5" s="11"/>
-      <c r="IN5" s="11"/>
-      <c r="IO5" s="11"/>
-      <c r="IP5" s="11"/>
-      <c r="IQ5" s="11"/>
-      <c r="IR5" s="11"/>
-      <c r="IS5" s="11"/>
-      <c r="IT5" s="11"/>
-      <c r="IU5" s="11"/>
-      <c r="IV5" s="11"/>
-      <c r="IW5" s="11"/>
-      <c r="IX5" s="11"/>
-      <c r="IY5" s="11"/>
-      <c r="IZ5" s="11"/>
-      <c r="JA5" s="11"/>
-      <c r="JB5" s="11"/>
-      <c r="JC5" s="11"/>
-      <c r="JD5" s="11"/>
-      <c r="JE5" s="11"/>
-      <c r="JF5" s="11"/>
-      <c r="JG5" s="11"/>
-      <c r="JH5" s="11"/>
-      <c r="JI5" s="11"/>
-      <c r="JJ5" s="11"/>
-      <c r="JK5" s="11"/>
-      <c r="JL5" s="11"/>
-      <c r="JM5" s="11"/>
-      <c r="JN5" s="11"/>
-      <c r="JO5" s="11"/>
-      <c r="JP5" s="11"/>
-      <c r="JQ5" s="11"/>
-      <c r="JR5" s="11"/>
-      <c r="JS5" s="11"/>
-      <c r="JT5" s="11"/>
+      <c r="BU5" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>72</v>
       </c>
@@ -6114,216 +5423,20 @@
       <c r="BT6" s="22">
         <v>0</v>
       </c>
-      <c r="BU6" s="10"/>
-      <c r="BV6" s="10"/>
-      <c r="BW6" s="10"/>
-      <c r="BX6" s="10"/>
-      <c r="BY6" s="10"/>
-      <c r="BZ6" s="10"/>
-      <c r="CA6" s="10"/>
-      <c r="CB6" s="10"/>
-      <c r="CC6" s="10"/>
-      <c r="CD6" s="10"/>
-      <c r="CE6" s="10"/>
-      <c r="CF6" s="10"/>
-      <c r="CG6" s="10"/>
-      <c r="CH6" s="10"/>
-      <c r="CI6" s="10"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="10"/>
-      <c r="CO6" s="10"/>
-      <c r="CP6" s="10"/>
-      <c r="CQ6" s="10"/>
-      <c r="CR6" s="10"/>
-      <c r="CS6" s="10"/>
-      <c r="CT6" s="10"/>
-      <c r="CU6" s="10"/>
-      <c r="CV6" s="10"/>
-      <c r="CW6" s="10"/>
-      <c r="CX6" s="10"/>
-      <c r="CY6" s="10"/>
-      <c r="CZ6" s="10"/>
-      <c r="DA6" s="10"/>
-      <c r="DB6" s="10"/>
-      <c r="DC6" s="10"/>
-      <c r="DD6" s="10"/>
-      <c r="DE6" s="10"/>
-      <c r="DF6" s="10"/>
-      <c r="DG6" s="10"/>
-      <c r="DH6" s="10"/>
-      <c r="DI6" s="10"/>
-      <c r="DJ6" s="10"/>
-      <c r="DK6" s="10"/>
-      <c r="DL6" s="10"/>
-      <c r="DM6" s="10"/>
-      <c r="DN6" s="10"/>
-      <c r="DO6" s="10"/>
-      <c r="DP6" s="10"/>
-      <c r="DQ6" s="10"/>
-      <c r="DR6" s="10"/>
-      <c r="DS6" s="10"/>
-      <c r="DT6" s="10"/>
-      <c r="DU6" s="10"/>
-      <c r="DV6" s="10"/>
-      <c r="DW6" s="10"/>
-      <c r="DX6" s="10"/>
-      <c r="DY6" s="10"/>
-      <c r="DZ6" s="10"/>
-      <c r="EA6" s="10"/>
-      <c r="EB6" s="10"/>
-      <c r="EC6" s="10"/>
-      <c r="ED6" s="10"/>
-      <c r="EE6" s="10"/>
-      <c r="EF6" s="10"/>
-      <c r="EG6" s="10"/>
-      <c r="EH6" s="10"/>
-      <c r="EI6" s="10"/>
-      <c r="EJ6" s="10"/>
-      <c r="EK6" s="10"/>
-      <c r="EL6" s="10"/>
-      <c r="EM6" s="10"/>
-      <c r="EN6" s="10"/>
-      <c r="EO6" s="10"/>
-      <c r="EP6" s="10"/>
-      <c r="EQ6" s="10"/>
-      <c r="ER6" s="10"/>
-      <c r="ES6" s="10"/>
-      <c r="ET6" s="10"/>
-      <c r="EU6" s="10"/>
-      <c r="EV6" s="10"/>
-      <c r="EW6" s="10"/>
-      <c r="EX6" s="11"/>
-      <c r="EY6" s="11"/>
-      <c r="EZ6" s="11"/>
-      <c r="FA6" s="11"/>
-      <c r="FB6" s="11"/>
-      <c r="FC6" s="11"/>
-      <c r="FD6" s="11"/>
-      <c r="FE6" s="11"/>
-      <c r="FF6" s="11"/>
-      <c r="FG6" s="11"/>
-      <c r="FH6" s="11"/>
-      <c r="FI6" s="11"/>
-      <c r="FJ6" s="11"/>
-      <c r="FK6" s="11"/>
-      <c r="FL6" s="11"/>
-      <c r="FM6" s="11"/>
-      <c r="FN6" s="11"/>
-      <c r="FO6" s="11"/>
-      <c r="FP6" s="11"/>
-      <c r="FQ6" s="11"/>
-      <c r="FR6" s="11"/>
-      <c r="FS6" s="11"/>
-      <c r="FT6" s="11"/>
-      <c r="FU6" s="11"/>
-      <c r="FV6" s="11"/>
-      <c r="FW6" s="11"/>
-      <c r="FX6" s="11"/>
-      <c r="FY6" s="11"/>
-      <c r="FZ6" s="11"/>
-      <c r="GA6" s="11"/>
-      <c r="GB6" s="11"/>
-      <c r="GC6" s="11"/>
-      <c r="GD6" s="11"/>
-      <c r="GE6" s="11"/>
-      <c r="GF6" s="11"/>
-      <c r="GG6" s="11"/>
-      <c r="GH6" s="11"/>
-      <c r="GI6" s="11"/>
-      <c r="GJ6" s="11"/>
-      <c r="GK6" s="11"/>
-      <c r="GL6" s="11"/>
-      <c r="GM6" s="11"/>
-      <c r="GN6" s="11"/>
-      <c r="GO6" s="11"/>
-      <c r="GP6" s="11"/>
-      <c r="GQ6" s="11"/>
-      <c r="GR6" s="11"/>
-      <c r="GS6" s="11"/>
-      <c r="GT6" s="11"/>
-      <c r="GU6" s="11"/>
-      <c r="GV6" s="11"/>
-      <c r="GW6" s="11"/>
-      <c r="GX6" s="11"/>
-      <c r="GY6" s="11"/>
-      <c r="GZ6" s="11"/>
-      <c r="HA6" s="11"/>
-      <c r="HB6" s="11"/>
-      <c r="HC6" s="11"/>
-      <c r="HD6" s="11"/>
-      <c r="HE6" s="11"/>
-      <c r="HF6" s="11"/>
-      <c r="HG6" s="11"/>
-      <c r="HH6" s="11"/>
-      <c r="HI6" s="11"/>
-      <c r="HJ6" s="11"/>
-      <c r="HK6" s="11"/>
-      <c r="HL6" s="11"/>
-      <c r="HM6" s="11"/>
-      <c r="HN6" s="11"/>
-      <c r="HO6" s="11"/>
-      <c r="HP6" s="11"/>
-      <c r="HQ6" s="11"/>
-      <c r="HR6" s="11"/>
-      <c r="HS6" s="11"/>
-      <c r="HT6" s="11"/>
-      <c r="HU6" s="11"/>
-      <c r="HV6" s="11"/>
-      <c r="HW6" s="11"/>
-      <c r="HX6" s="11"/>
-      <c r="HY6" s="11"/>
-      <c r="HZ6" s="11"/>
-      <c r="IA6" s="11"/>
-      <c r="IB6" s="11"/>
-      <c r="IC6" s="11"/>
-      <c r="ID6" s="11"/>
-      <c r="IE6" s="11"/>
-      <c r="IF6" s="11"/>
-      <c r="IG6" s="11"/>
-      <c r="IH6" s="11"/>
-      <c r="II6" s="11"/>
-      <c r="IJ6" s="11"/>
-      <c r="IK6" s="11"/>
-      <c r="IL6" s="11"/>
-      <c r="IM6" s="11"/>
-      <c r="IN6" s="11"/>
-      <c r="IO6" s="11"/>
-      <c r="IP6" s="11"/>
-      <c r="IQ6" s="11"/>
-      <c r="IR6" s="11"/>
-      <c r="IS6" s="11"/>
-      <c r="IT6" s="11"/>
-      <c r="IU6" s="11"/>
-      <c r="IV6" s="11"/>
-      <c r="IW6" s="11"/>
-      <c r="IX6" s="11"/>
-      <c r="IY6" s="11"/>
-      <c r="IZ6" s="11"/>
-      <c r="JA6" s="11"/>
-      <c r="JB6" s="11"/>
-      <c r="JC6" s="11"/>
-      <c r="JD6" s="11"/>
-      <c r="JE6" s="11"/>
-      <c r="JF6" s="11"/>
-      <c r="JG6" s="11"/>
-      <c r="JH6" s="11"/>
-      <c r="JI6" s="11"/>
-      <c r="JJ6" s="11"/>
-      <c r="JK6" s="11"/>
-      <c r="JL6" s="11"/>
-      <c r="JM6" s="11"/>
-      <c r="JN6" s="11"/>
-      <c r="JO6" s="11"/>
-      <c r="JP6" s="11"/>
-      <c r="JQ6" s="11"/>
-      <c r="JR6" s="11"/>
-      <c r="JS6" s="11"/>
-      <c r="JT6" s="11"/>
+      <c r="BU6" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
@@ -6540,8 +5653,20 @@
       <c r="BT7" s="22">
         <v>0</v>
       </c>
+      <c r="BU7" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>74</v>
       </c>
@@ -6758,8 +5883,20 @@
       <c r="BT8" s="22">
         <v>0</v>
       </c>
+      <c r="BU8" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>75</v>
       </c>
@@ -6976,883 +6113,943 @@
       <c r="BT9" s="22">
         <v>0</v>
       </c>
+      <c r="BU9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>1</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1</v>
+      </c>
+      <c r="X10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="8">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
-        <v>1</v>
-      </c>
-      <c r="P10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>1</v>
-      </c>
-      <c r="U10" s="4">
-        <v>1</v>
-      </c>
-      <c r="V10" s="4">
-        <v>1</v>
-      </c>
-      <c r="W10" s="4">
-        <v>1</v>
-      </c>
-      <c r="X10" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="23">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="23">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="23">
-        <v>1</v>
-      </c>
-      <c r="AT10" s="23">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="4">
-        <v>1</v>
-      </c>
-      <c r="AZ10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BB10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BC10" s="8">
-        <v>1</v>
-      </c>
-      <c r="BD10" s="8">
-        <v>1</v>
-      </c>
-      <c r="BE10" s="8">
-        <v>1</v>
-      </c>
-      <c r="BF10" s="8">
-        <v>1</v>
-      </c>
-      <c r="BG10" s="8">
-        <v>1</v>
-      </c>
-      <c r="BH10" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BL10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BM10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BN10" s="4">
-        <v>1</v>
-      </c>
-      <c r="BO10" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="5">
-        <v>0</v>
-      </c>
-      <c r="BQ10" s="22">
-        <v>0</v>
-      </c>
-      <c r="BR10" s="22">
-        <v>0</v>
-      </c>
-      <c r="BS10" s="22">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="22">
+      <c r="B11" s="26">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="12" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="26">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="26">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0</v>
-      </c>
-      <c r="W11" s="5">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="7">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI11" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="5">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="5">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM11" s="5">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO11" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="5">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="22">
-        <v>0</v>
-      </c>
-      <c r="BR11" s="22">
-        <v>0</v>
-      </c>
-      <c r="BS11" s="22">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="22">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>1</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="23">
+        <v>1</v>
+      </c>
+      <c r="O12" s="23">
+        <v>1</v>
+      </c>
+      <c r="P12" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>1</v>
+      </c>
+      <c r="R12" s="4">
+        <v>1</v>
+      </c>
+      <c r="S12" s="4">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="23">
+        <v>1</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="26">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="13" spans="1:76" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23">
-        <v>1</v>
-      </c>
-      <c r="I12" s="23">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="23">
-        <v>1</v>
-      </c>
-      <c r="O12" s="23">
-        <v>1</v>
-      </c>
-      <c r="P12" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="23">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4">
-        <v>1</v>
-      </c>
-      <c r="S12" s="4">
-        <v>1</v>
-      </c>
-      <c r="T12" s="4">
-        <v>1</v>
-      </c>
-      <c r="U12" s="4">
-        <v>1</v>
-      </c>
-      <c r="V12" s="23">
-        <v>1</v>
-      </c>
-      <c r="W12" s="4">
-        <v>1</v>
-      </c>
-      <c r="X12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="23">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="26">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="7">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="7">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="7">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BN12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP12" s="5">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="22">
-        <v>0</v>
-      </c>
-      <c r="BR12" s="22">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="22">
-        <v>0</v>
-      </c>
-      <c r="BT12" s="22">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0</v>
+      </c>
+      <c r="L13" s="28">
+        <v>1</v>
+      </c>
+      <c r="M13" s="28">
+        <v>1</v>
+      </c>
+      <c r="N13" s="28">
+        <v>1</v>
+      </c>
+      <c r="O13" s="28">
+        <v>1</v>
+      </c>
+      <c r="P13" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="28">
+        <v>1</v>
+      </c>
+      <c r="R13" s="28">
+        <v>1</v>
+      </c>
+      <c r="S13" s="28">
+        <v>1</v>
+      </c>
+      <c r="T13" s="28">
+        <v>1</v>
+      </c>
+      <c r="U13" s="28">
+        <v>1</v>
+      </c>
+      <c r="V13" s="28">
+        <v>1</v>
+      </c>
+      <c r="W13" s="28">
+        <v>1</v>
+      </c>
+      <c r="X13" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="31">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="31">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="31">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="31">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="31">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="31">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="29">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="8">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:280" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="14" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="27">
-        <v>0</v>
-      </c>
-      <c r="L13" s="28">
-        <v>1</v>
-      </c>
-      <c r="M13" s="28">
-        <v>1</v>
-      </c>
-      <c r="N13" s="28">
-        <v>1</v>
-      </c>
-      <c r="O13" s="28">
-        <v>1</v>
-      </c>
-      <c r="P13" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>1</v>
-      </c>
-      <c r="R13" s="28">
-        <v>1</v>
-      </c>
-      <c r="S13" s="28">
-        <v>1</v>
-      </c>
-      <c r="T13" s="28">
-        <v>1</v>
-      </c>
-      <c r="U13" s="28">
-        <v>1</v>
-      </c>
-      <c r="V13" s="28">
-        <v>1</v>
-      </c>
-      <c r="W13" s="28">
-        <v>1</v>
-      </c>
-      <c r="X13" s="29">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="29">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="30">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AJ13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AK13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="32">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="32">
-        <v>1</v>
-      </c>
-      <c r="AO13" s="32">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="32">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="4">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="7">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="7">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="8">
-        <v>1</v>
-      </c>
-      <c r="BF13" s="8">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="8">
-        <v>1</v>
-      </c>
-      <c r="BH13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BL13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="4">
-        <v>1</v>
-      </c>
-      <c r="BN13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="5">
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="22">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="22">
-        <v>0</v>
-      </c>
-      <c r="BS13" s="22">
-        <v>0</v>
-      </c>
-      <c r="BT13" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:280" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
@@ -8066,43 +7263,51 @@
       <c r="BT14" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:280" x14ac:dyDescent="0.25">
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
+      <c r="BU14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="BU3:XFD6">
-    <cfRule type="containsBlanks" dxfId="20" priority="7">
+    <cfRule type="containsBlanks" dxfId="14" priority="7">
       <formula>LEN(TRIM(BU3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A14">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="11" priority="4">
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ3:DS14">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>0</formula>
+  <conditionalFormatting sqref="BQ3:BX14">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
+      <formula>LEN(TRIM(BQ3))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(BQ3))=0</formula>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -8178,4 +7383,1029 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B23BD1-807D-4E11-B1E8-BC33923E812C}">
+  <dimension ref="A1:BX4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:76" s="33" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR1" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS1" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AU1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB1" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC1" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD1" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="BF1" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG1" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH1" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="BJ1" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK1" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="BL1" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="BO1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP1" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ1" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR1" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS1" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT1" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU1" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="BV1" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="BW1" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="BX1" s="36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD2" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE2" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF2" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG2" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH2" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI2" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ2" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK2" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL2" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM2" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN2" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO2" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP2" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ2" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR2" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS2" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT2" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU2" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV2" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW2" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="AX2" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="AY2" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ2" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA2" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC2" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD2" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE2" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF2" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG2" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH2" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ2" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK2" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL2" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM2" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="BN2" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="BP2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="BQ2" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="BR2" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="BS2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="BT2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU2" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="BV2" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="BW2" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="BX2" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>1</v>
+      </c>
+      <c r="S3" s="4">
+        <v>1</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="23">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="8">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="22">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A4">
+    <cfRule type="containsBlanks" dxfId="5" priority="7">
+      <formula>LEN(TRIM(A3))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ3:BX4">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(BQ3))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{1EB7E4FA-4C4F-4BE5-9430-DDB3C1AB3BBE}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{221129F1-731E-4DE5-B76D-7D9E491183CB}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{E82CEA1F-7B9A-4405-98A8-E8A10693E52E}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{5FDBC741-B2E1-463C-9E40-0687E08E711A}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{F4A50CB6-1A59-45E7-8CF7-5D95B693C3E8}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{DAB6E64D-9053-409A-9B56-B87BAD7D03E0}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{E0C943FB-43AE-4551-B28E-E7498F65DAE7}"/>
+    <hyperlink ref="H2" r:id="rId8" xr:uid="{DA80719F-3EC3-4387-A7D6-C6FFDA6142DB}"/>
+    <hyperlink ref="I2" r:id="rId9" xr:uid="{1A14EADB-B9FB-4440-9CED-5CAF19983DAD}"/>
+    <hyperlink ref="N2" r:id="rId10" xr:uid="{1507667C-22A7-4C16-9481-E92A406BF8D7}"/>
+    <hyperlink ref="M2" r:id="rId11" xr:uid="{BF7D6406-36AB-4940-8F05-5D65F1C02033}"/>
+    <hyperlink ref="J2" r:id="rId12" xr:uid="{E6CE1657-EBDE-4343-872D-B3994792F81B}"/>
+    <hyperlink ref="O2" r:id="rId13" xr:uid="{CD8B105B-83CF-47AE-8ADE-60AFA3046E58}"/>
+    <hyperlink ref="P2" r:id="rId14" xr:uid="{A1BBE51D-67BB-4A5C-8353-B47155E7A55F}"/>
+    <hyperlink ref="Q2" r:id="rId15" xr:uid="{7E2A2AF2-2950-4B0F-A637-EC6A027F668D}"/>
+    <hyperlink ref="R2" r:id="rId16" xr:uid="{C69E4738-2FEF-4CFF-B025-7FC34785A8B0}"/>
+    <hyperlink ref="T2" r:id="rId17" xr:uid="{ACA921A6-1BF9-43B0-8775-46A3995556CB}"/>
+    <hyperlink ref="U2" r:id="rId18" xr:uid="{4A79464E-CB05-42F8-9686-A217D82082ED}"/>
+    <hyperlink ref="V2" r:id="rId19" xr:uid="{1BCEB841-A770-43B6-AC76-46DEDE625D51}"/>
+    <hyperlink ref="W2" r:id="rId20" xr:uid="{CBF71B4F-E77E-4333-83B9-E0A891D95097}"/>
+    <hyperlink ref="X2" r:id="rId21" xr:uid="{2FF04634-196D-411D-A524-210D11EAB6FE}"/>
+    <hyperlink ref="Y2" r:id="rId22" xr:uid="{E5DFFBBD-9D50-4FA0-AA27-4CA9A16A7A5F}"/>
+    <hyperlink ref="Z2" r:id="rId23" xr:uid="{4AB2F821-B121-4711-BBA1-B60C0605E472}"/>
+    <hyperlink ref="AA2" r:id="rId24" xr:uid="{2CA1EC11-00F1-4281-B9EF-187C05A601BA}"/>
+    <hyperlink ref="AB2" r:id="rId25" xr:uid="{8C9F03B7-5CC6-4C58-9559-9E40C53D3CB7}"/>
+    <hyperlink ref="AD2" r:id="rId26" xr:uid="{D37F6BD5-7A24-4CAB-872B-BBC5A429CF4D}"/>
+    <hyperlink ref="AC2" r:id="rId27" xr:uid="{2DE9FC55-C855-4018-830A-698A87ADF1B2}"/>
+    <hyperlink ref="AE2" r:id="rId28" xr:uid="{FDE1C60F-6A37-47CA-9131-AA9748330892}"/>
+    <hyperlink ref="AF2" r:id="rId29" xr:uid="{26B9B52A-0766-4DA3-9B1A-1E96CFB8DC96}"/>
+    <hyperlink ref="AG2" r:id="rId30" xr:uid="{B9F8E829-8061-4F3D-B5A1-87CD1FFD89D5}"/>
+    <hyperlink ref="AH2" r:id="rId31" xr:uid="{6607BF69-F50E-462B-930D-2F6B83E8D29F}"/>
+    <hyperlink ref="AI2" r:id="rId32" xr:uid="{C7927160-6BE3-44D1-90B3-D2F3E3C40B00}"/>
+    <hyperlink ref="AJ2" r:id="rId33" xr:uid="{D0BE5FCE-90DF-4F88-8088-97B20653889F}"/>
+    <hyperlink ref="AK2" r:id="rId34" xr:uid="{C0712C28-04C6-47DB-BA35-E2D7ABE976C6}"/>
+    <hyperlink ref="AL2" r:id="rId35" xr:uid="{3790A33E-D4EC-4C73-A2DF-3D20FE419445}"/>
+    <hyperlink ref="AM2" r:id="rId36" xr:uid="{4D91B031-C959-408B-9850-D72E7B051219}"/>
+    <hyperlink ref="AN2" r:id="rId37" xr:uid="{F69B65BD-6AD4-4C0E-BAED-AE4D5D92DD32}"/>
+    <hyperlink ref="AO2" r:id="rId38" xr:uid="{2F2D2DE0-19C2-47E4-8277-54AC512F0BB4}"/>
+    <hyperlink ref="AP2" r:id="rId39" xr:uid="{92FFA28C-4ED6-4D50-AFCE-12E542D2D4E3}"/>
+    <hyperlink ref="AQ2" r:id="rId40" xr:uid="{DFFC8130-C919-41CA-97CB-AFC0AA6AA685}"/>
+    <hyperlink ref="AR2" r:id="rId41" xr:uid="{9AD97A25-C887-465C-810A-9AEE37DE2537}"/>
+    <hyperlink ref="AS2" r:id="rId42" xr:uid="{2D1805E9-3F58-44FB-92D4-F2ABDC9056FA}"/>
+    <hyperlink ref="AT2" r:id="rId43" xr:uid="{8CF65D28-1E55-458C-966B-FDB9B9B060F1}"/>
+    <hyperlink ref="AU2" r:id="rId44" xr:uid="{FE035534-884C-4FE9-B8C4-973824316CC8}"/>
+    <hyperlink ref="AV2" r:id="rId45" xr:uid="{6291585D-1EE9-4A48-9825-685A52636331}"/>
+    <hyperlink ref="AW2" r:id="rId46" xr:uid="{31C9C59E-876D-4E02-895B-2DC01393AE5B}"/>
+    <hyperlink ref="AX2" r:id="rId47" xr:uid="{1D69D6DA-3B6D-4AD2-8399-0BA71B5C7251}"/>
+    <hyperlink ref="AY2" r:id="rId48" xr:uid="{EF9655C6-6336-41AE-A735-7FB6DD16182C}"/>
+    <hyperlink ref="AZ2" r:id="rId49" xr:uid="{78C7E2ED-46AA-47F9-A228-EEF2ECDDDF0D}"/>
+    <hyperlink ref="BA2" r:id="rId50" xr:uid="{6051D5F5-09F3-4D97-AFF5-63E0165D6321}"/>
+    <hyperlink ref="BB2" r:id="rId51" xr:uid="{3525AC8E-D162-4014-86BF-38189B6790D5}"/>
+    <hyperlink ref="BC2" r:id="rId52" xr:uid="{20E75AEC-4E60-4259-A532-01717B03F015}"/>
+    <hyperlink ref="BD2" r:id="rId53" xr:uid="{0D8F7927-656A-4053-80FE-893231D49BCD}"/>
+    <hyperlink ref="BE2" r:id="rId54" xr:uid="{C3AB93F8-8982-4172-9D3D-3050039069D9}"/>
+    <hyperlink ref="BF2" r:id="rId55" xr:uid="{2527871D-73D5-41DE-A9CB-A2CD364C9F4C}"/>
+    <hyperlink ref="BG2" r:id="rId56" xr:uid="{D60D42E6-DCFC-4E6B-8E3D-FAE250143160}"/>
+    <hyperlink ref="BH2" r:id="rId57" xr:uid="{C3DC14F5-EA27-479E-95BC-6296C5FC6DC9}"/>
+    <hyperlink ref="BJ2" r:id="rId58" xr:uid="{C098FE5E-AF0B-476C-AAD8-4345335D7651}"/>
+    <hyperlink ref="BK2" r:id="rId59" xr:uid="{227FC3E6-23BD-45BA-8A75-E82FB2181B78}"/>
+    <hyperlink ref="BL2" r:id="rId60" xr:uid="{193A8E45-085A-4D15-AB66-149523725F55}"/>
+    <hyperlink ref="BM2" r:id="rId61" xr:uid="{1FD86473-3778-454F-AA05-BA9AB403939F}"/>
+    <hyperlink ref="BN2" r:id="rId62" xr:uid="{BD15A488-81E1-4C25-91E1-049B5AF2CC68}"/>
+    <hyperlink ref="BQ2" r:id="rId63" xr:uid="{CB8FCB0E-F9B2-44A9-BD56-6178116EFC80}"/>
+    <hyperlink ref="BR2" r:id="rId64" xr:uid="{62F17732-EC46-45F4-A6C4-0B2C45DA5B9B}"/>
+    <hyperlink ref="BU2" r:id="rId65" xr:uid="{A202C2A9-ACC4-4493-A873-F9750CB2D40F}"/>
+    <hyperlink ref="BV2" r:id="rId66" xr:uid="{D8A9E99D-B54F-4B69-A848-92EC3D73CFD0}"/>
+    <hyperlink ref="BW2" r:id="rId67" xr:uid="{0EFB97F5-8CB1-45AA-9F7F-FA7A295EE2A5}"/>
+    <hyperlink ref="BX2" r:id="rId68" xr:uid="{95AE33FD-0EAC-4428-97B4-E15688A18FF7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
+</worksheet>
 </file>